--- a/Project Risks  Issues Register Template v0.2 (1).xlsx
+++ b/Project Risks  Issues Register Template v0.2 (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mia van Jaarsveld\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Random Stuff\School Stuff\Unitec\HTCS5607\htc5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E4B9F-7861-4749-856E-3ADE3C209793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88FE9E3-21DC-4B68-B060-17E221531539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="Risk Matrix" sheetId="2" r:id="rId3"/>
     <sheet name="Data" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Risk Register'!$B$2:$K$4</definedName>
     <definedName name="Consequences">Data!$C$2:$C$6</definedName>
@@ -48,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>Date Raised</t>
   </si>
@@ -169,6 +166,27 @@
   </si>
   <si>
     <t>Device Issues</t>
+  </si>
+  <si>
+    <t>Any issue that makes connectivity to internet resources and tools impossible or impaired</t>
+  </si>
+  <si>
+    <t>Issues that prevent or limit the function of devices or hardware used in the development of the project</t>
+  </si>
+  <si>
+    <t>Github/Version Control Problems</t>
+  </si>
+  <si>
+    <t>Problems on Github's end that effect managing and viewing backups</t>
+  </si>
+  <si>
+    <t>Framework Issues</t>
+  </si>
+  <si>
+    <t>Problems on the framework developers end that prevent the project from functioning</t>
+  </si>
+  <si>
+    <t>Try to get as much progress done possible without access to external resources/support, try seek fixes and alternatives immediately such as mobile data or other networks.</t>
   </si>
 </sst>
 </file>
@@ -176,7 +194,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -451,6 +469,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -472,18 +493,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="38">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -630,223 +676,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -946,19 +775,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1224,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW50"/>
+  <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1051,7 @@
     <col min="1" max="1" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="8" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="11" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="7" customWidth="1"/>
     <col min="6" max="6" width="14" style="7" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="22" customWidth="1"/>
@@ -1247,19 +1063,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:49" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -1296,28 +1112,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="39">
         <v>44451</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E3" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="20" t="str">
         <f>IFERROR(INDEX('Risk Matrix'!$C$6:$G$10,MATCH('Risk Register'!E3,'Risk Matrix'!$B$6:$B$10,0),MATCH('Risk Register'!F3,'Risk Matrix'!$C$5:$G$5,0)),"")</f>
         <v>Moderate</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="2" t="s">
@@ -1332,15 +1152,17 @@
       <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="39">
         <v>44451</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E4" s="19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="20" t="str">
         <f>IFERROR(INDEX('Risk Matrix'!$C$6:$G$10,MATCH('Risk Register'!E4,'Risk Matrix'!$B$6:$B$10,0),MATCH('Risk Register'!F4,'Risk Matrix'!$C$5:$G$5,0)),"")</f>
@@ -1353,23 +1175,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <f>SUM(A4+0.1)</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="46">
+        <v>42</v>
+      </c>
+      <c r="C5" s="39">
         <v>44451</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5" s="20" t="str">
         <f>IFERROR(INDEX('Risk Matrix'!$C$6:$G$10,MATCH('Risk Register'!E5,'Risk Matrix'!$B$6:$B$10,0),MATCH('Risk Register'!F5,'Risk Matrix'!$C$5:$G$5,0)),"")</f>
@@ -1420,23 +1244,25 @@
       <c r="AV5" s="17"/>
       <c r="AW5" s="17"/>
     </row>
-    <row r="6" spans="1:49" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <f>SUM(A5+0.1)</f>
         <v>1.3000000000000003</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="46">
+        <v>44</v>
+      </c>
+      <c r="C6" s="39">
         <v>44451</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E6" s="19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" s="20" t="str">
         <f>IFERROR(INDEX('Risk Matrix'!$C$6:$G$10,MATCH('Risk Register'!E6,'Risk Matrix'!$B$6:$B$10,0),MATCH('Risk Register'!F6,'Risk Matrix'!$C$5:$G$5,0)),"")</f>
@@ -1488,33 +1314,17 @@
       <c r="AW6" s="17"/>
     </row>
     <row r="7" spans="1:49" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
-        <f>SUM(A6+0.1)</f>
-        <v>1.4000000000000004</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="46">
-        <v>44451</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="20" t="str">
-        <f>IFERROR(INDEX('Risk Matrix'!$C$6:$G$10,MATCH('Risk Register'!E7,'Risk Matrix'!$B$6:$B$10,0),MATCH('Risk Register'!F7,'Risk Matrix'!$C$5:$G$5,0)),"")</f>
-        <v>Moderate</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A7" s="34"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
@@ -3696,268 +3506,172 @@
       <c r="AV49" s="17"/>
       <c r="AW49" s="17"/>
     </row>
-    <row r="50" spans="1:49" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="17"/>
-      <c r="AC50" s="17"/>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="17"/>
-      <c r="AF50" s="17"/>
-      <c r="AG50" s="17"/>
-      <c r="AH50" s="17"/>
-      <c r="AI50" s="17"/>
-      <c r="AJ50" s="17"/>
-      <c r="AK50" s="17"/>
-      <c r="AL50" s="17"/>
-      <c r="AM50" s="17"/>
-      <c r="AN50" s="17"/>
-      <c r="AO50" s="17"/>
-      <c r="AP50" s="17"/>
-      <c r="AQ50" s="17"/>
-      <c r="AR50" s="17"/>
-      <c r="AS50" s="17"/>
-      <c r="AT50" s="17"/>
-      <c r="AU50" s="17"/>
-      <c r="AV50" s="17"/>
-      <c r="AW50" s="17"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 G3:I3 J4 K3">
-    <cfRule type="expression" dxfId="64" priority="261">
+    <cfRule type="expression" dxfId="37" priority="261">
       <formula>IF($K3="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="63" priority="257" operator="containsText" text="Extreme">
+    <cfRule type="containsText" dxfId="36" priority="257" operator="containsText" text="Extreme">
       <formula>NOT(ISERROR(SEARCH("Extreme",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="258" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="35" priority="258" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="259" operator="containsText" text="moderate">
+    <cfRule type="containsText" dxfId="34" priority="259" operator="containsText" text="moderate">
       <formula>NOT(ISERROR(SEARCH("moderate",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="260" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="33" priority="260" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D3">
-    <cfRule type="expression" dxfId="59" priority="256">
+    <cfRule type="expression" dxfId="32" priority="256">
       <formula>IF($K3="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D4 H4:I4 K4">
-    <cfRule type="expression" dxfId="58" priority="236">
+    <cfRule type="expression" dxfId="31" priority="236">
       <formula>IF($J4="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="57" priority="136" operator="containsText" text="Extreme">
+    <cfRule type="containsText" dxfId="30" priority="136" operator="containsText" text="Extreme">
       <formula>NOT(ISERROR(SEARCH("Extreme",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="137" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="29" priority="137" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="138" operator="containsText" text="moderate">
+    <cfRule type="containsText" dxfId="28" priority="138" operator="containsText" text="moderate">
       <formula>NOT(ISERROR(SEARCH("moderate",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="139" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="27" priority="139" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="53" priority="135">
+    <cfRule type="expression" dxfId="26" priority="135">
       <formula>IF($K4="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="52" priority="87">
+    <cfRule type="expression" dxfId="25" priority="87">
       <formula>IF($J4="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="51" priority="85">
+    <cfRule type="expression" dxfId="24" priority="85">
       <formula>IF($J3="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="50" priority="28">
+    <cfRule type="expression" dxfId="23" priority="28">
       <formula>IF($K3="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C4 C8:C1048576">
-    <cfRule type="expression" dxfId="49" priority="262">
+  <conditionalFormatting sqref="C2:C4 C7:C1048576">
+    <cfRule type="expression" dxfId="22" priority="262">
       <formula>IF($K3="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5 J5">
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="21" priority="26">
       <formula>IF($K5="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D5 H5:I5 K5">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>IF($J5="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Extreme">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Extreme">
       <formula>NOT(ISERROR(SEARCH("Extreme",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="moderate">
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="moderate">
       <formula>NOT(ISERROR(SEARCH("moderate",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>IF($K5="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>IF($J5="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="18" priority="27">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>IF($K6="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6 J6">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>IF($K6="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:D6 H6:I6 K6">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>IF($J6="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="Extreme">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Extreme">
       <formula>NOT(ISERROR(SEARCH("Extreme",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="moderate">
+    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="moderate">
       <formula>NOT(ISERROR(SEARCH("moderate",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>IF($K6="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>IF($J6="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="9" priority="18">
-      <formula>IF($K7="Closed",1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7 J7">
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>IF($K7="Closed",1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:D7 H7:I7 K7">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>IF($J7="Closed",1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Extreme">
-      <formula>NOT(ISERROR(SEARCH("Extreme",G7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",G7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="moderate">
-      <formula>NOT(ISERROR(SEARCH("moderate",G7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",G7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>IF($K7="Closed",1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>IF($J7="Closed",1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>IF($K8="Closed",1,0)</formula>
+    <cfRule type="expression" dxfId="0" priority="263">
+      <formula>IF(#REF!="Closed",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Data!$B$2:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E7</xm:sqref>
+          <xm:sqref>E3:E6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Data!$C$2:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA7C35BC-946B-45C1-9878-A6D285DE4DDC}">
-          <x14:formula1>
-            <xm:f>Data!$B$2:$B$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
+          <xm:sqref>F3:F6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3991,38 +3705,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
     </row>
     <row r="3" spans="1:14" s="36" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
@@ -4449,16 +4163,16 @@
     <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="C6:G10">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="Extreme">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Extreme">
       <formula>NOT(ISERROR(SEARCH("Extreme",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="Moderate">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Moderate">
       <formula>NOT(ISERROR(SEARCH("Moderate",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
